--- a/tests/data/demos/invoice/report.xlsx
+++ b/tests/data/demos/invoice/report.xlsx
@@ -527,8 +527,7 @@
   <cols>
     <col min="1" max="1" width="38.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
